--- a/medicine/Mort/Cimetière_russe_de_Nice/Cimetière_russe_de_Nice.xlsx
+++ b/medicine/Mort/Cimetière_russe_de_Nice/Cimetière_russe_de_Nice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Nice</t>
+          <t>Cimetière_russe_de_Nice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière russe de Nice, ou cimetière orthodoxe de Caucade, est un cimetière situé au sud-ouest de la ville de Nice (Alpes-Maritimes), au 78 avenue Sainte-Marguerite[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière russe de Nice, ou cimetière orthodoxe de Caucade, est un cimetière situé au sud-ouest de la ville de Nice (Alpes-Maritimes), au 78 avenue Sainte-Marguerite.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Nice</t>
+          <t>Cimetière_russe_de_Nice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été aménagé sur une parcelle achetée par la Russie en 1867 sur la colline de Caucade, à une époque où la colonie russe était importante sur la Côte d'Azur. Il se trouve au-dessus du cimetière anglais, lui-même situé au-dessus (au nord) du grand cimetière civil et militaire de Caucade.
-Trois mille[réf. nécessaire] Russes et descendants d'émigrés russes réfugiés après la révolution d'Octobre y sont enterrés, comme les membres des familles princières Galitzine, Gagarine, Narychkine, Obolensky, Volkonski ou encore Tsereteli. Au total, le cimetière compte 900 sépultures[2].
-Le cimetière est desservi par une chapelle orthodoxe, consacrée en mars 1868 et dédiée à saint Nicolas en l'honneur du patron du tsarévitch Nicolas, mort de tuberculose à Nice en 1865[3]. Un office religieux y est célébré tous les mercredis matin[2].
-Le cimetière est géré par l'Association cultuelle orthodoxe russe de Nice (ACOR) responsable de la paroisse orthodoxe Saint-Nicolas de Nice. Celle-ci ne reconnaît pas l'autorité de l'Église orthodoxe russe, mais est rattachée jusqu'en 2019 au patriarcat œcuménique de Constantinople puis à l'Église orthodoxe roumaine[4]. Face aux difficultés financières auxquelles la paroisse doit faire face à la suite de la perte de l'occupation et de la gestion de la cathédrale orthodoxe russe Saint-Nicolas, elle a dû licencier le gardien du cimetière en juillet 2012. En conséquence, alors qu'il était auparavant ouvert tous les jours de la semaine, il n'est aujourd'hui plus ouvert que le vendredi et le samedi de 10 heures à midi et de 14 heures à 17 heures[2]. Il est desservi par la ligne d'autobus no 8 (station Caucade).
+Trois mille[réf. nécessaire] Russes et descendants d'émigrés russes réfugiés après la révolution d'Octobre y sont enterrés, comme les membres des familles princières Galitzine, Gagarine, Narychkine, Obolensky, Volkonski ou encore Tsereteli. Au total, le cimetière compte 900 sépultures.
+Le cimetière est desservi par une chapelle orthodoxe, consacrée en mars 1868 et dédiée à saint Nicolas en l'honneur du patron du tsarévitch Nicolas, mort de tuberculose à Nice en 1865. Un office religieux y est célébré tous les mercredis matin.
+Le cimetière est géré par l'Association cultuelle orthodoxe russe de Nice (ACOR) responsable de la paroisse orthodoxe Saint-Nicolas de Nice. Celle-ci ne reconnaît pas l'autorité de l'Église orthodoxe russe, mais est rattachée jusqu'en 2019 au patriarcat œcuménique de Constantinople puis à l'Église orthodoxe roumaine. Face aux difficultés financières auxquelles la paroisse doit faire face à la suite de la perte de l'occupation et de la gestion de la cathédrale orthodoxe russe Saint-Nicolas, elle a dû licencier le gardien du cimetière en juillet 2012. En conséquence, alors qu'il était auparavant ouvert tous les jours de la semaine, il n'est aujourd'hui plus ouvert que le vendredi et le samedi de 10 heures à midi et de 14 heures à 17 heures. Il est desservi par la ligne d'autobus no 8 (station Caucade).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Nice</t>
+          <t>Cimetière_russe_de_Nice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les personnalités enterrées au cimetière, on trouve : 
 Georges Adamovitch (1892-1972), poète et critique littéraire ;
@@ -564,7 +580,7 @@
 Stepan Vassilievitch Vostrotine (1864-1943), maire de Ienisseïsk de 1894 à 1899, député de la douma d'État de l'Empire russe de 1911 à 1917, explorateur polaire, régionaliste sibérien, russe blanc exilé;
 Philippe Maliavine (1869-1940), peintre ;
 Prince George Mavrocordato (1865-1939), ambassadeur de Roumanie en Russie ;
-Barbara Dimitrievna Mergassov, comtesse Rimsky Korsakov (1833-1878)[5] ;
+Barbara Dimitrievna Mergassov, comtesse Rimsky Korsakov (1833-1878) ;
 Colonel Alexandre Raïevsky (1795-1868) ;
 Comte Sergueï Alexandrovitch Stroganov (1852-1923) ;
 Serge Voronoff (1866-1951), chirurgien français d'origine russe.</t>
